--- a/biology/Médecine/Métacarpien/Métacarpien.xlsx
+++ b/biology/Médecine/Métacarpien/Métacarpien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tacarpien</t>
+          <t>Métacarpien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les métacarpiens (ou os métacarpiens ou os du métacarpe) sont les os formant le métacarpe squelette de la paume de la main. Ils sont articulés dans leur partie supérieure[1] avec les os de la rangée distale du carpe et se prolonge au niveau de sa partie inférieure[1] par les phalanges proximales. Ces os sont unis par les muscles interosseux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les métacarpiens (ou os métacarpiens ou os du métacarpe) sont les os formant le métacarpe squelette de la paume de la main. Ils sont articulés dans leur partie supérieure avec les os de la rangée distale du carpe et se prolonge au niveau de sa partie inférieure par les phalanges proximales. Ces os sont unis par les muscles interosseux.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tacarpien</t>
+          <t>Métacarpien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,254 +523,815 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métacarpiens sont cinq petits os longs numérotés de 1 à 5, de dehors en dedans en position anatomique : 1 correspond au pouce et 5 à l'auriculaire. Chacun se compose d'une base proximale, d'un corps et d'une tête distale.
-Base proximale
-La base proximale ou épiphyse proximale a une forme de pyramide quadrangulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Base proximale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La base proximale ou épiphyse proximale a une forme de pyramide quadrangulaire.
 Elle présente
 une face supérieure articulaire avec les os de la deuxième rangée du carpe pour former les articulations carpo-métacarpiennes,
 une face antérieure présentant un tubercule,
 une face postérieure marquée par un sillon vertical séparant deux tubercules,
-deux facettes latérales en relation avec les métacarpien(s) voisin(s) pour former les articulations intermétacarpiennes.
-Corps
-Le corps ou diaphyse est prismatique. incurvé en avant.
+deux facettes latérales en relation avec les métacarpien(s) voisin(s) pour former les articulations intermétacarpiennes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le corps ou diaphyse est prismatique. incurvé en avant.
 Il présente :
 une face postérieure triangulaire de base inférieure,
-deux faces latérales donnant insertions aux muscles interosseux dorsaux de la main et palmaires.
-Tête distale
-La tête distale ou épiphyse distale a une forme sphérique aplatie transversalement.
+deux faces latérales donnant insertions aux muscles interosseux dorsaux de la main et palmaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description générale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tête distale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête distale ou épiphyse distale a une forme sphérique aplatie transversalement.
 Elle présente une surface articulaire convexe avec la phalange proximale. Elle est limitée à l'avant en croissant par deux tubercules. En arrière elle est séparée de la diaphyse par un sillon transversal.
 La tête présente également deux faces latérales marquées par l'empreinte des insertions des ligaments collatéraux des articulations métacarpo-phalangiennes.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Premier métacarpien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Le premier os métacarpien est le plus court et et le plus épais des métacarpiens. Il est situé sur un plan plus antérieur et plus oblique.
-Base
-La surface articulaire de la base est en selle et s'articule avec le trapèze. La surface articulaire est délimitée par une crête épaisse en forme de crête s'étendant autour de sa circonférence.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier os métacarpien est le plus court et et le plus épais des métacarpiens. Il est situé sur un plan plus antérieur et plus oblique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Premier métacarpien</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface articulaire de la base est en selle et s'articule avec le trapèze. La surface articulaire est délimitée par une crête épaisse en forme de crête s'étendant autour de sa circonférence.
 Sur le côté palmaire et latéral de la base se trouve l'insertion du tendon du muscle long abducteur du pouce, généralement doté d'un petit tubercule.
 La configuration de l'articulation carpo-métacarpienne du pouce joue un rôle important dans le mécanisme d'opposition.
-Corps
-Son corps est aplati d'avant en arrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Premier métacarpien</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps est aplati d'avant en arrière.
 La surface dorsale est faiblement convexe longitudinalement, tandis que ses faces palmaire et latérales ont tendance à être concaves.
 Les faces palmaire et médiale présente une crête émoussée qui sépare une partie latérale plus large pour l'insertion du muscle opposant du pouce et une partie médiale plus petit pour l'origine du chef latéral du premier muscle interosseux dorsal de la main.
 Contrairement aux autres métacarpiens, le premier métacarpien n'a pas de facettes articulaires sur les côtés de sa base car il s'articule exclusivement avec le trapèze.
-Tête
-La tête est moins arrondie et moins sphérique que celles des autres métacarpiens, ce qui la rend mieux adaptée à une articulation en forme de charnière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Premier métacarpien</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tête</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête est moins arrondie et moins sphérique que celles des autres métacarpiens, ce qui la rend mieux adaptée à une articulation en forme de charnière.
 La surface articulaire distale est quadrilatérale, large et plate, plus épaisse et plus large transversalement et s'étend beaucoup plus du côté palmaire que du côté dorsal.
 Sur la face palmaire de la surface articulaire, il y a une paire d'éminences qui s'articulent avec les os sésamoïdes radiaux et ulnaires de l'articulation métacarpo-phalangienne du pouce , la latérale étant plus grande que la médiale.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Deuxième métacarpien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Le deuxième métacarpien est le plus long des métacarpiens.
-Base
-Sa base est prolongée vers le haut et vers le milieu une crête proéminente. En arrière et en dedans se présente un processus styloïde.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le deuxième métacarpien est le plus long des métacarpiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Deuxième métacarpien</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa base est prolongée vers le haut et vers le milieu une crête proéminente. En arrière et en dedans se présente un processus styloïde.
 Sa face supérieure présente trois facettes articulaires de dehors en dedans pour : le trapèze, le trapézoïde et le capitatum.
 Médialement, il présente une facette pour le troisième métacarpien.
 Au niveau du processus styloïde s'insère le muscle long extenseur radial du carpe.
 Sa face palmaire donne insertion au muscle fléchisseur radial du carpe.
-Corps
-La diaphyse donne naissance au premier muscle interosseux palmaire et aux premier et deuxième muscle interosseux dorsaux de la main.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Deuxième métacarpien</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse donne naissance au premier muscle interosseux palmaire et aux premier et deuxième muscle interosseux dorsaux de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Troisième métacarpien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Le troisième métacarpien est plus court que le deuxième métacarpien.
-Base
-Sur la face dorsale de sa base se présente sur son côté radial une éminence pyramidale : le processus styloïde du troisième os métacarpien, qui s'étend vers le haut en arrière du capitatum. Dans la partie supérieure se trouve une surface rugueuse pour l'insertion du muscle court extenseur radial du carpe.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le troisième métacarpien est plus court que le deuxième métacarpien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Troisième métacarpien</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la face dorsale de sa base se présente sur son côté radial une éminence pyramidale : le processus styloïde du troisième os métacarpien, qui s'étend vers le haut en arrière du capitatum. Dans la partie supérieure se trouve une surface rugueuse pour l'insertion du muscle court extenseur radial du carpe.
 La facette articulaire carpienne est concave en arrière, plate en avant et s'articule avec le capitatum.
 Du côté radial se trouve une facette lisse et concave pour l'articulation avec le deuxième métacarpien, et du côté ulnaire deux petites facettes ovales pour le quatrième métacarpien.
-Corps
-La diaphyse donne naissance aux deuxième et troisième muscle interosseux dorsaux de la main.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Troisième métacarpien</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse donne naissance aux deuxième et troisième muscle interosseux dorsaux de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Quatrième métacarpien</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Le quatrième métacarpien est plus court que le troisième métacarpien.
-Base
-La base est petite et quadrilatère.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le quatrième métacarpien est plus court que le troisième métacarpien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Quatrième métacarpien</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base est petite et quadrilatère.
 Sa face supérieure présente deux facettes : une grande médiale pour l'articulation avec l'hamatum, et une petite latérale pour le capitatum.
 Sur le côté radial se trouvent deux facettes ovales, pour l'articulation avec le troisième métacarpien, et sur le côté ulnaire une seule facette concave, pour le cinquième métacarpien.
-Corps
-La diaphyse donne naissance au deuxième muscle interosseux palmaire et aux troisième et quatrième muscle interosseux dorsaux de la main.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Quatrième métacarpien</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse donne naissance au deuxième muscle interosseux palmaire et aux troisième et quatrième muscle interosseux dorsaux de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Cinquième métacarpien</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Le cinquième métacarpien est plus court que le quatrième métacarpien.
-Base
-Sa face supérieure présente une surface articulaire concavo-convexe qui s'articule avec l'hamatum.
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cinquième métacarpien est plus court que le quatrième métacarpien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cinquième métacarpien</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa face supérieure présente une surface articulaire concavo-convexe qui s'articule avec l'hamatum.
 Sa face radiale présente une facette articulaire qui s'articule avec le quatrième métacarpien.
 Sa face ulnaire présente un tubercule pour l'insertion du muscle extenseur ulnaire du carpe.
-Corps
-La surface dorsale du corps est divisée par une crête oblique, qui s'étend du côté ulnaire de la base jusqu'au côté radial de la tête. Sur la partie latérale s'insère le quatrième muscle interosseux dorsal de la main, la partie médiale est lisse, triangulaire et couverte par les tendons extenseurs du petit doigt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cinquième métacarpien</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface dorsale du corps est divisée par une crête oblique, qui s'étend du côté ulnaire de la base jusqu'au côté radial de la tête. Sur la partie latérale s'insère le quatrième muscle interosseux dorsal de la main, la partie médiale est lisse, triangulaire et couverte par les tendons extenseurs du petit doigt.
 La surface palmaire est divisée de la même manière : la partie latérale est l'origine du troisième muscle interosseux palmaire, la partie médiale donne insertion au muscle opposant de petit doigt.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métacarpiens ont deux points d'ossification : un primaire dans la diaphyse pour la base et le corps et un secondaire dans la tête.
 Pour le premier métacarpien, le point d'ossification secondaire est dans la base.
@@ -766,67 +1339,109 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fractures
-Les fractures des os métacarpiens représentent 30 à 40 % de toutes les fractures de la main, dont 25 % surviennent dans le premier métacarpien (deuxième après les fractures du cinquième métacarpien) et 80% des fractures du premier métacarpien surviennent à sa base[2].
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fractures</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fractures des os métacarpiens représentent 30 à 40 % de toutes les fractures de la main, dont 25 % surviennent dans le premier métacarpien (deuxième après les fractures du cinquième métacarpien) et 80% des fractures du premier métacarpien surviennent à sa base.
 Les fractures courantes du premier métacarpien sont la fracture de Bennett et la fracture de Rolando.
 La fracture des quatrième et cinquième métacarpien est fréquente après un coup de poing : fracture du boxeur.
-Quatrième métacarpien court
-Un quatrième os métacarpien raccourci peut être un signe clinique du syndrome de Kallmann, une maladie génétique qui entraîne l'échec du début ou le non-achèvement de la puberté ou du syndrome de Turner, un trouble impliquant les chromosomes sexuels.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Quatrième métacarpien court</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un quatrième os métacarpien raccourci peut être un signe clinique du syndrome de Kallmann, une maladie génétique qui entraîne l'échec du début ou le non-achèvement de la puberté ou du syndrome de Turner, un trouble impliquant les chromosomes sexuels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Métacarpien</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
